--- a/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_150_180G_CAT_I_PLATEAU_2RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_150_180G_CAT_I_PLATEAU_2RG.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,339 +467,229 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>45656</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.240000009536743</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.240000009536743</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.240000009536743</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>45600</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.080000042915344</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.049999952316284</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.090000033378601</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>45607</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.080000042915344</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.049999952316284</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.090000033378601</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.129999995231628</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+        <v>45614</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.049999952316284</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.090000033378601</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.120000004768372</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+        <v>45621</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.090000033378601</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.120000004768372</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.120000004768372</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+        <v>45628</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.120000004768372</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.120000004768372</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.100000023841858</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+        <v>45635</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.120000004768372</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.120000004768372</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.100000023841858</v>
+      </c>
       <c r="E8" t="n">
-        <v>1.200000047683716</v>
+        <v>1.100000023841858</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+        <v>45642</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.120000004768372</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.100000023841858</v>
+      </c>
       <c r="D9" t="n">
-        <v>1.200000047683716</v>
+        <v>1.100000023841858</v>
       </c>
       <c r="E9" t="n">
-        <v>1.175000011920929</v>
+        <v>1.080000042915344</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
+        <v>45649</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.100000023841858</v>
+      </c>
       <c r="C10" t="n">
-        <v>1.200000047683716</v>
+        <v>1.100000023841858</v>
       </c>
       <c r="D10" t="n">
-        <v>1.175000011920929</v>
+        <v>1.080000042915344</v>
       </c>
       <c r="E10" t="n">
-        <v>1.149999976158142</v>
+        <v>1.090000033378601</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45663</v>
       </c>
       <c r="B11" t="n">
-        <v>1.200000047683716</v>
+        <v>1.100000023841858</v>
       </c>
       <c r="C11" t="n">
-        <v>1.175000011920929</v>
+        <v>1.080000042915344</v>
       </c>
       <c r="D11" t="n">
-        <v>1.149999976158142</v>
+        <v>1.090000033378601</v>
       </c>
       <c r="E11" t="n">
-        <v>1.149999976158142</v>
+        <v>1.100000023841858</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45670</v>
       </c>
       <c r="B12" t="n">
-        <v>1.175000011920929</v>
+        <v>1.080000042915344</v>
       </c>
       <c r="C12" t="n">
-        <v>1.149999976158142</v>
+        <v>1.090000033378601</v>
       </c>
       <c r="D12" t="n">
-        <v>1.149999976158142</v>
+        <v>1.100000023841858</v>
       </c>
       <c r="E12" t="n">
-        <v>1.129999995231628</v>
+        <v>1.059999942779541</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45677</v>
       </c>
       <c r="B13" t="n">
-        <v>1.149999976158142</v>
+        <v>1.090000033378601</v>
       </c>
       <c r="C13" t="n">
-        <v>1.149999976158142</v>
+        <v>1.100000023841858</v>
       </c>
       <c r="D13" t="n">
-        <v>1.129999995231628</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.080000042915344</v>
-      </c>
+        <v>1.059999942779541</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45684</v>
       </c>
       <c r="B14" t="n">
-        <v>1.149999976158142</v>
+        <v>1.100000023841858</v>
       </c>
       <c r="C14" t="n">
-        <v>1.129999995231628</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.080000042915344</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.049999952316284</v>
-      </c>
+        <v>1.059999942779541</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45691</v>
       </c>
       <c r="B15" t="n">
-        <v>1.129999995231628</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.080000042915344</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.049999952316284</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.090000033378601</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.080000042915344</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.049999952316284</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.090000033378601</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.129999995231628</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.049999952316284</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.090000033378601</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.129999995231628</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.120000004768372</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1.090000033378601</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.129999995231628</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.120000004768372</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1.129999995231628</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.100000023841858</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.100000023841858</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.080000042915344</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.080000042915344</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.090000033378601</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.080000042915344</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.090000033378601</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1.080000042915344</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.090000033378601</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45677</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.090000033378601</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+        <v>1.059999942779541</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -812,7 +702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -844,338 +734,198 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
+        <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.194195032119751</v>
+        <v>1.175011038780212</v>
       </c>
       <c r="C2" t="n">
-        <v>1.195318222045898</v>
+        <v>1.145146489143372</v>
       </c>
       <c r="D2" t="n">
-        <v>1.247467398643494</v>
+        <v>1.167931795120239</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45600</v>
       </c>
       <c r="B3" t="n">
-        <v>1.236011862754822</v>
+        <v>1.149002313613892</v>
       </c>
       <c r="C3" t="n">
-        <v>1.204777479171753</v>
+        <v>1.075964570045471</v>
       </c>
       <c r="D3" t="n">
-        <v>1.294217705726624</v>
+        <v>1.049665689468384</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45607</v>
       </c>
       <c r="B4" t="n">
-        <v>1.235574126243591</v>
+        <v>1.153874635696411</v>
       </c>
       <c r="C4" t="n">
-        <v>1.18743896484375</v>
+        <v>1.041344523429871</v>
       </c>
       <c r="D4" t="n">
-        <v>1.260420560836792</v>
+        <v>1.059709787368774</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45614</v>
       </c>
       <c r="B5" t="n">
-        <v>1.246292471885681</v>
+        <v>1.18962836265564</v>
       </c>
       <c r="C5" t="n">
-        <v>1.186947107315063</v>
+        <v>1.076864123344421</v>
       </c>
       <c r="D5" t="n">
-        <v>1.259024739265442</v>
+        <v>1.078858017921448</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
+        <v>45621</v>
       </c>
       <c r="B6" t="n">
-        <v>1.247519135475159</v>
+        <v>1.190877437591553</v>
       </c>
       <c r="C6" t="n">
-        <v>1.172180652618408</v>
+        <v>1.077325940132141</v>
       </c>
       <c r="D6" t="n">
-        <v>1.281042098999023</v>
+        <v>1.078603029251099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45628</v>
       </c>
       <c r="B7" t="n">
-        <v>1.246366858482361</v>
+        <v>1.184901714324951</v>
       </c>
       <c r="C7" t="n">
-        <v>1.190600872039795</v>
+        <v>1.133519768714905</v>
       </c>
       <c r="D7" t="n">
-        <v>1.312867164611816</v>
+        <v>1.089447975158691</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45635</v>
       </c>
       <c r="B8" t="n">
-        <v>1.282197594642639</v>
+        <v>1.188008069992065</v>
       </c>
       <c r="C8" t="n">
-        <v>1.190395951271057</v>
+        <v>1.129195332527161</v>
       </c>
       <c r="D8" t="n">
-        <v>1.322438478469849</v>
+        <v>1.115993618965149</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
+        <v>45642</v>
       </c>
       <c r="B9" t="n">
-        <v>1.292645812034607</v>
+        <v>1.187721371650696</v>
       </c>
       <c r="C9" t="n">
-        <v>1.185455918312073</v>
+        <v>1.116615653038025</v>
       </c>
       <c r="D9" t="n">
-        <v>1.346381187438965</v>
+        <v>1.107146501541138</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45649</v>
       </c>
       <c r="B10" t="n">
-        <v>1.312834620475769</v>
+        <v>1.157304167747498</v>
       </c>
       <c r="C10" t="n">
-        <v>1.243507504463196</v>
+        <v>1.115781664848328</v>
       </c>
       <c r="D10" t="n">
-        <v>1.342843413352966</v>
+        <v>1.105305671691895</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45663</v>
       </c>
       <c r="B11" t="n">
-        <v>1.306334018707275</v>
+        <v>1.173518538475037</v>
       </c>
       <c r="C11" t="n">
-        <v>1.306564331054688</v>
+        <v>1.144895911216736</v>
       </c>
       <c r="D11" t="n">
-        <v>1.290280222892761</v>
+        <v>1.167473077774048</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45670</v>
       </c>
       <c r="B12" t="n">
-        <v>1.275914311408997</v>
+        <v>1.186913847923279</v>
       </c>
       <c r="C12" t="n">
-        <v>1.203646898269653</v>
+        <v>1.138985276222229</v>
       </c>
       <c r="D12" t="n">
-        <v>1.229990482330322</v>
+        <v>1.143733024597168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45677</v>
       </c>
       <c r="B13" t="n">
-        <v>1.254804968833923</v>
+        <v>1.186427235603333</v>
       </c>
       <c r="C13" t="n">
-        <v>1.169327974319458</v>
+        <v>1.13560688495636</v>
       </c>
       <c r="D13" t="n">
-        <v>1.227149248123169</v>
+        <v>1.140098094940186</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45684</v>
       </c>
       <c r="B14" t="n">
-        <v>1.283455729484558</v>
+        <v>1.188682556152344</v>
       </c>
       <c r="C14" t="n">
-        <v>1.221499562263489</v>
+        <v>1.137248635292053</v>
       </c>
       <c r="D14" t="n">
-        <v>1.229217171669006</v>
+        <v>1.088599920272827</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45691</v>
       </c>
       <c r="B15" t="n">
-        <v>1.279159188270569</v>
+        <v>1.188127756118774</v>
       </c>
       <c r="C15" t="n">
-        <v>1.203598141670227</v>
+        <v>1.134733557701111</v>
       </c>
       <c r="D15" t="n">
-        <v>1.143936514854431</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.272123217582703</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.111331820487976</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.147868633270264</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.206024527549744</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.117249488830566</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.11779510974884</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1.207282423973083</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.132735133171082</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.145088791847229</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1.216132283210754</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.205809235572815</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.173947691917419</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1.216099381446838</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.192957401275635</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.142226815223694</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1.215849041938782</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.186277866363525</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.151858806610107</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.215217232704163</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.218049168586731</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.155865430831909</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1.21235454082489</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.239548087120056</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.231689691543579</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1.208221316337585</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.156124591827393</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1.186884164810181</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45677</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.206270575523376</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.13779091835022</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.222912073135376</v>
+        <v>1.087008237838745</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_150_180G_CAT_I_PLATEAU_2RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_150_180G_CAT_I_PLATEAU_2RG.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,212 +484,373 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.129999995231628</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.080000042915344</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.049999952316284</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.090000033378601</v>
-      </c>
+        <v>45509</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.080000042915344</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.049999952316284</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.090000033378601</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.129999995231628</v>
-      </c>
+        <v>45516</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.049999952316284</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.090000033378601</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.129999995231628</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.120000004768372</v>
-      </c>
+        <v>45523</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.090000033378601</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.129999995231628</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.120000004768372</v>
-      </c>
+        <v>45530</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.129999995231628</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.100000023841858</v>
-      </c>
+        <v>45537</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.100000023841858</v>
-      </c>
+        <v>45544</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.100000023841858</v>
-      </c>
+        <v>45551</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>1.080000042915344</v>
+        <v>1.200000047683716</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.100000023841858</v>
-      </c>
+        <v>45558</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>1.080000042915344</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="E10" t="n">
-        <v>1.090000033378601</v>
+        <v>1.175000011920929</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.100000023841858</v>
-      </c>
+        <v>45565</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1.080000042915344</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="D11" t="n">
-        <v>1.090000033378601</v>
+        <v>1.175000011920929</v>
       </c>
       <c r="E11" t="n">
-        <v>1.100000023841858</v>
+        <v>1.149999976158142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45670</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.080000042915344</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="C12" t="n">
-        <v>1.090000033378601</v>
+        <v>1.175000011920929</v>
       </c>
       <c r="D12" t="n">
-        <v>1.100000023841858</v>
+        <v>1.149999976158142</v>
       </c>
       <c r="E12" t="n">
-        <v>1.059999942779541</v>
+        <v>1.149999976158142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45677</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.090000033378601</v>
+        <v>1.175000011920929</v>
       </c>
       <c r="C13" t="n">
-        <v>1.100000023841858</v>
+        <v>1.149999976158142</v>
       </c>
       <c r="D13" t="n">
-        <v>1.059999942779541</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
+        <v>1.149999976158142</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.129999995231628</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45684</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.100000023841858</v>
+        <v>1.149999976158142</v>
       </c>
       <c r="C14" t="n">
-        <v>1.059999942779541</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+        <v>1.149999976158142</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.080000042915344</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.149999976158142</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.080000042915344</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.049999952316284</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.080000042915344</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.049999952316284</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.090000033378601</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.080000042915344</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.049999952316284</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.090000033378601</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.129999995231628</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.049999952316284</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.090000033378601</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.120000004768372</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.090000033378601</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.120000004768372</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.120000004768372</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.120000004768372</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.120000004768372</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.100000023841858</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.120000004768372</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.120000004768372</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.100000023841858</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.120000004768372</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.080000042915344</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.080000042915344</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.090000033378601</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.080000042915344</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.090000033378601</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.100000023841858</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.080000042915344</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.090000033378601</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.059999942779541</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.090000033378601</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.059999942779541</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.059999942779541</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>45691</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B28" t="n">
         <v>1.059999942779541</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -702,7 +863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,195 +898,377 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.175011038780212</v>
+        <v>1.220072388648987</v>
       </c>
       <c r="C2" t="n">
-        <v>1.145146489143372</v>
+        <v>1.163955092430115</v>
       </c>
       <c r="D2" t="n">
-        <v>1.167931795120239</v>
+        <v>1.142012119293213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45600</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.149002313613892</v>
+        <v>1.151057958602905</v>
       </c>
       <c r="C3" t="n">
-        <v>1.075964570045471</v>
+        <v>1.245880365371704</v>
       </c>
       <c r="D3" t="n">
-        <v>1.049665689468384</v>
+        <v>1.233985543251038</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45607</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.153874635696411</v>
+        <v>1.199711441993713</v>
       </c>
       <c r="C4" t="n">
-        <v>1.041344523429871</v>
+        <v>1.19188129901886</v>
       </c>
       <c r="D4" t="n">
-        <v>1.059709787368774</v>
+        <v>1.292782068252563</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45614</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.18962836265564</v>
+        <v>1.199226140975952</v>
       </c>
       <c r="C5" t="n">
-        <v>1.076864123344421</v>
+        <v>1.159409403800964</v>
       </c>
       <c r="D5" t="n">
-        <v>1.078858017921448</v>
+        <v>1.272129893302917</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45621</v>
+        <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.190877437591553</v>
+        <v>1.207837581634521</v>
       </c>
       <c r="C6" t="n">
-        <v>1.077325940132141</v>
+        <v>1.17931056022644</v>
       </c>
       <c r="D6" t="n">
-        <v>1.078603029251099</v>
+        <v>1.268640875816345</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45628</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.184901714324951</v>
+        <v>1.209660172462463</v>
       </c>
       <c r="C7" t="n">
-        <v>1.133519768714905</v>
+        <v>1.17345118522644</v>
       </c>
       <c r="D7" t="n">
-        <v>1.089447975158691</v>
+        <v>1.279145240783691</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45635</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.188008069992065</v>
+        <v>1.208195686340332</v>
       </c>
       <c r="C8" t="n">
-        <v>1.129195332527161</v>
+        <v>1.204409599304199</v>
       </c>
       <c r="D8" t="n">
-        <v>1.115993618965149</v>
+        <v>1.291419386863708</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45642</v>
+        <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.187721371650696</v>
+        <v>1.223320722579956</v>
       </c>
       <c r="C9" t="n">
-        <v>1.116615653038025</v>
+        <v>1.246810078620911</v>
       </c>
       <c r="D9" t="n">
-        <v>1.107146501541138</v>
+        <v>1.287869572639465</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45649</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.157304167747498</v>
+        <v>1.249142050743103</v>
       </c>
       <c r="C10" t="n">
-        <v>1.115781664848328</v>
+        <v>1.24515974521637</v>
       </c>
       <c r="D10" t="n">
-        <v>1.105305671691895</v>
+        <v>1.301470518112183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45663</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.173518538475037</v>
+        <v>1.310250401496887</v>
       </c>
       <c r="C11" t="n">
-        <v>1.144895911216736</v>
+        <v>1.273289680480957</v>
       </c>
       <c r="D11" t="n">
-        <v>1.167473077774048</v>
+        <v>1.258536219596863</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45670</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.186913847923279</v>
+        <v>1.28594970703125</v>
       </c>
       <c r="C12" t="n">
-        <v>1.138985276222229</v>
+        <v>1.273197174072266</v>
       </c>
       <c r="D12" t="n">
-        <v>1.143733024597168</v>
+        <v>1.205000519752502</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45677</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.186427235603333</v>
+        <v>1.239741206169128</v>
       </c>
       <c r="C13" t="n">
-        <v>1.13560688495636</v>
+        <v>1.197241187095642</v>
       </c>
       <c r="D13" t="n">
-        <v>1.140098094940186</v>
+        <v>1.157563447952271</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45684</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.188682556152344</v>
+        <v>1.263883113861084</v>
       </c>
       <c r="C14" t="n">
-        <v>1.137248635292053</v>
+        <v>1.199058413505554</v>
       </c>
       <c r="D14" t="n">
-        <v>1.088599920272827</v>
+        <v>1.164870977401733</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.230209350585938</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.181894183158875</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.199627041816711</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.22571063041687</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.176171898841858</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.181565165519714</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.245033860206604</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.07394540309906</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.095779299736023</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.212356090545654</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.063454151153564</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.039254069328308</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.211711645126343</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.069063663482666</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.095821976661682</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.208261966705322</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.122210383415222</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.090515732765198</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.216004490852356</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.113808870315552</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.084139704704285</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.209377646446228</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.096867918968201</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.078382253646851</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.206668376922607</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.118134737014771</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.086627840995789</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.204976797103882</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.152096152305603</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.1659996509552</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.199753165245056</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.095934510231018</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.122875571250916</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.200508952140808</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.061011672019958</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.130949020385742</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.199902892112732</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.052848935127258</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.112289071083069</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>45691</v>
       </c>
-      <c r="B15" t="n">
-        <v>1.188127756118774</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.134733557701111</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.087008237838745</v>
+      <c r="B28" t="n">
+        <v>1.207616329193115</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.04346239566803</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.105321526527405</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_150_180G_CAT_I_PLATEAU_2RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_150_180G_CAT_I_PLATEAU_2RG.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GOLDEN FRANCE 150/180G CAT.I PLATEAU 2RG_S+1</t>
+          <t>PRIX EXP POMME GOLDEN FRANCE 150/180G CAT.I PLATEAU 2RG_S+1_class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GOLDEN FRANCE 150/180G CAT.I PLATEAU 2RG_S+2</t>
+          <t>PRIX EXP POMME GOLDEN FRANCE 150/180G CAT.I PLATEAU 2RG_S+2_class</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GOLDEN FRANCE 150/180G CAT.I PLATEAU 2RG_S+3</t>
+          <t>PRIX EXP POMME GOLDEN FRANCE 150/180G CAT.I PLATEAU 2RG_S+3_class</t>
         </is>
       </c>
     </row>
@@ -473,13 +473,13 @@
         <v>1.100000023841858</v>
       </c>
       <c r="C2" t="n">
-        <v>1.240000009536743</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.240000009536743</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1.240000009536743</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -487,64 +487,104 @@
         <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>45530</v>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>45537</v>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>45544</v>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>45551</v>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
       <c r="E9" t="n">
-        <v>1.200000047683716</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -552,12 +592,14 @@
         <v>45558</v>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
       <c r="D10" t="n">
-        <v>1.200000047683716</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>1.175000011920929</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -566,13 +608,13 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1.200000047683716</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>1.175000011920929</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1.149999976158142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -583,13 +625,13 @@
         <v>1.200000047683716</v>
       </c>
       <c r="C12" t="n">
-        <v>1.175000011920929</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1.149999976158142</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1.149999976158142</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -600,13 +642,13 @@
         <v>1.175000011920929</v>
       </c>
       <c r="C13" t="n">
-        <v>1.149999976158142</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1.149999976158142</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>1.129999995231628</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +659,13 @@
         <v>1.149999976158142</v>
       </c>
       <c r="C14" t="n">
-        <v>1.149999976158142</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>1.129999995231628</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1.080000042915344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -634,13 +676,13 @@
         <v>1.149999976158142</v>
       </c>
       <c r="C15" t="n">
-        <v>1.129999995231628</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1.080000042915344</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.049999952316284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +693,13 @@
         <v>1.129999995231628</v>
       </c>
       <c r="C16" t="n">
-        <v>1.080000042915344</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.049999952316284</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1.090000033378601</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -668,13 +710,13 @@
         <v>1.080000042915344</v>
       </c>
       <c r="C17" t="n">
-        <v>1.049999952316284</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1.090000033378601</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>1.129999995231628</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -685,13 +727,13 @@
         <v>1.049999952316284</v>
       </c>
       <c r="C18" t="n">
-        <v>1.090000033378601</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>1.129999995231628</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>1.120000004768372</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -702,13 +744,13 @@
         <v>1.090000033378601</v>
       </c>
       <c r="C19" t="n">
-        <v>1.129999995231628</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>1.120000004768372</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1.120000004768372</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -719,13 +761,13 @@
         <v>1.129999995231628</v>
       </c>
       <c r="C20" t="n">
-        <v>1.120000004768372</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>1.120000004768372</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>1.100000023841858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -736,13 +778,13 @@
         <v>1.120000004768372</v>
       </c>
       <c r="C21" t="n">
-        <v>1.120000004768372</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>1.100000023841858</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1.100000023841858</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -753,13 +795,13 @@
         <v>1.120000004768372</v>
       </c>
       <c r="C22" t="n">
-        <v>1.100000023841858</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1.100000023841858</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1.080000042915344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -770,13 +812,13 @@
         <v>1.100000023841858</v>
       </c>
       <c r="C23" t="n">
-        <v>1.100000023841858</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>1.080000042915344</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1.090000033378601</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -787,13 +829,13 @@
         <v>1.100000023841858</v>
       </c>
       <c r="C24" t="n">
-        <v>1.080000042915344</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1.090000033378601</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>1.100000023841858</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -804,13 +846,13 @@
         <v>1.080000042915344</v>
       </c>
       <c r="C25" t="n">
-        <v>1.090000033378601</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>1.100000023841858</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>1.059999942779541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -821,12 +863,14 @@
         <v>1.090000033378601</v>
       </c>
       <c r="C26" t="n">
-        <v>1.100000023841858</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>1.059999942779541</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -836,10 +880,14 @@
         <v>1.100000023841858</v>
       </c>
       <c r="C27" t="n">
-        <v>1.059999942779541</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -848,9 +896,15 @@
       <c r="B28" t="n">
         <v>1.059999942779541</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -898,13 +952,13 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.220072388648987</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.163955092430115</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.142012119293213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -912,13 +966,13 @@
         <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.151057958602905</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.245880365371704</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.233985543251038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -926,13 +980,13 @@
         <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.199711441993713</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.19188129901886</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.292782068252563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -940,13 +994,13 @@
         <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.199226140975952</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.159409403800964</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.272129893302917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -954,13 +1008,13 @@
         <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.207837581634521</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.17931056022644</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.268640875816345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -968,13 +1022,13 @@
         <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.209660172462463</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.17345118522644</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.279145240783691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +1036,13 @@
         <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.208195686340332</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.204409599304199</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.291419386863708</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -996,13 +1050,13 @@
         <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.223320722579956</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.246810078620911</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.287869572639465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1010,13 +1064,13 @@
         <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.249142050743103</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.24515974521637</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.301470518112183</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1024,13 +1078,13 @@
         <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.310250401496887</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.273289680480957</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.258536219596863</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1038,13 +1092,13 @@
         <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.28594970703125</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.273197174072266</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>1.205000519752502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1052,13 +1106,13 @@
         <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.239741206169128</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.197241187095642</v>
+        <v>-2</v>
       </c>
       <c r="D13" t="n">
-        <v>1.157563447952271</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1066,13 +1120,13 @@
         <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.263883113861084</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.199058413505554</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>1.164870977401733</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1080,13 +1134,13 @@
         <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>1.230209350585938</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.181894183158875</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1.199627041816711</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1094,13 +1148,13 @@
         <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>1.22571063041687</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.176171898841858</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>1.181565165519714</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1108,13 +1162,13 @@
         <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>1.245033860206604</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.07394540309906</v>
+        <v>-2</v>
       </c>
       <c r="D17" t="n">
-        <v>1.095779299736023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1122,13 +1176,13 @@
         <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>1.212356090545654</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.063454151153564</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.039254069328308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1136,13 +1190,13 @@
         <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>1.211711645126343</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.069063663482666</v>
+        <v>-2</v>
       </c>
       <c r="D19" t="n">
-        <v>1.095821976661682</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="20">
@@ -1150,13 +1204,13 @@
         <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>1.208261966705322</v>
+        <v>-1</v>
       </c>
       <c r="C20" t="n">
-        <v>1.122210383415222</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.090515732765198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1164,13 +1218,13 @@
         <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>1.216004490852356</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1.113808870315552</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.084139704704285</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="22">
@@ -1178,13 +1232,13 @@
         <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>1.209377646446228</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.096867918968201</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.078382253646851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1192,13 +1246,13 @@
         <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>1.206668376922607</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.118134737014771</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.086627840995789</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24">
@@ -1206,13 +1260,13 @@
         <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>1.204976797103882</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.152096152305603</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.1659996509552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1220,13 +1274,13 @@
         <v>45670</v>
       </c>
       <c r="B25" t="n">
-        <v>1.199753165245056</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.095934510231018</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.122875571250916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1234,13 +1288,13 @@
         <v>45677</v>
       </c>
       <c r="B26" t="n">
-        <v>1.200508952140808</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.061011672019958</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.130949020385742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1248,13 +1302,13 @@
         <v>45684</v>
       </c>
       <c r="B27" t="n">
-        <v>1.199902892112732</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.052848935127258</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.112289071083069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1262,13 +1316,13 @@
         <v>45691</v>
       </c>
       <c r="B28" t="n">
-        <v>1.207616329193115</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.04346239566803</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.105321526527405</v>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
